--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7183383333333332</v>
+        <v>0.1860306666666667</v>
       </c>
       <c r="H2">
-        <v>2.155015</v>
+        <v>0.558092</v>
       </c>
       <c r="I2">
-        <v>0.1157638296793402</v>
+        <v>0.0235467122458118</v>
       </c>
       <c r="J2">
-        <v>0.1157638296793402</v>
+        <v>0.02354671224581179</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,27 +558,27 @@
         <v>0.037021</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1810521476743106</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1810521476743105</v>
       </c>
       <c r="Q2">
-        <v>0.008864534479444443</v>
+        <v>0.002295680436888889</v>
       </c>
       <c r="R2">
-        <v>0.07978081031499998</v>
+        <v>0.020661123932</v>
       </c>
       <c r="S2">
-        <v>0.1157638296793402</v>
+        <v>0.004263182822773214</v>
       </c>
       <c r="T2">
-        <v>0.1157638296793402</v>
+        <v>0.004263182822773212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.267456</v>
+        <v>0.1860306666666667</v>
       </c>
       <c r="H3">
-        <v>12.802368</v>
+        <v>0.558092</v>
       </c>
       <c r="I3">
-        <v>0.687721964183189</v>
+        <v>0.0235467122458118</v>
       </c>
       <c r="J3">
-        <v>0.6877219641831891</v>
+        <v>0.02354671224581179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01234033333333333</v>
+        <v>0.05581866666666666</v>
       </c>
       <c r="N3">
-        <v>0.037021</v>
+        <v>0.167456</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8189478523256895</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8189478523256895</v>
       </c>
       <c r="Q3">
-        <v>0.05266182952533333</v>
+        <v>0.01038398377244444</v>
       </c>
       <c r="R3">
-        <v>0.473956465728</v>
+        <v>0.093455853952</v>
       </c>
       <c r="S3">
-        <v>0.687721964183189</v>
+        <v>0.01928352942303858</v>
       </c>
       <c r="T3">
-        <v>0.6877219641831891</v>
+        <v>0.01928352942303858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.219411</v>
+        <v>4.267456</v>
       </c>
       <c r="H4">
-        <v>3.658233</v>
+        <v>12.802368</v>
       </c>
       <c r="I4">
-        <v>0.1965142061374708</v>
+        <v>0.5401505045064059</v>
       </c>
       <c r="J4">
-        <v>0.1965142061374708</v>
+        <v>0.5401505045064058</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,208 @@
         <v>0.037021</v>
       </c>
       <c r="O4">
+        <v>0.1810521476743106</v>
+      </c>
+      <c r="P4">
+        <v>0.1810521476743105</v>
+      </c>
+      <c r="Q4">
+        <v>0.05266182952533333</v>
+      </c>
+      <c r="R4">
+        <v>0.473956465728</v>
+      </c>
+      <c r="S4">
+        <v>0.09779540890824716</v>
+      </c>
+      <c r="T4">
+        <v>0.09779540890824713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G5">
+        <v>4.267456</v>
+      </c>
+      <c r="H5">
+        <v>12.802368</v>
+      </c>
+      <c r="I5">
+        <v>0.5401505045064059</v>
+      </c>
+      <c r="J5">
+        <v>0.5401505045064058</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.05581866666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.167456</v>
+      </c>
+      <c r="O5">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="P5">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="Q5">
+        <v>0.2382037039786667</v>
+      </c>
+      <c r="R5">
+        <v>2.143833335808</v>
+      </c>
+      <c r="S5">
+        <v>0.4423550955981587</v>
+      </c>
+      <c r="T5">
+        <v>0.4423550955981587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>0.01504793821033333</v>
-      </c>
-      <c r="R4">
-        <v>0.135431443893</v>
-      </c>
-      <c r="S4">
-        <v>0.1965142061374708</v>
-      </c>
-      <c r="T4">
-        <v>0.1965142061374708</v>
+      <c r="G6">
+        <v>3.447007666666666</v>
+      </c>
+      <c r="H6">
+        <v>10.341023</v>
+      </c>
+      <c r="I6">
+        <v>0.4363027832477824</v>
+      </c>
+      <c r="J6">
+        <v>0.4363027832477824</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01234033333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.037021</v>
+      </c>
+      <c r="O6">
+        <v>0.1810521476743106</v>
+      </c>
+      <c r="P6">
+        <v>0.1810521476743105</v>
+      </c>
+      <c r="Q6">
+        <v>0.04253722360922222</v>
+      </c>
+      <c r="R6">
+        <v>0.382835012483</v>
+      </c>
+      <c r="S6">
+        <v>0.07899355594329022</v>
+      </c>
+      <c r="T6">
+        <v>0.0789935559432902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.447007666666666</v>
+      </c>
+      <c r="H7">
+        <v>10.341023</v>
+      </c>
+      <c r="I7">
+        <v>0.4363027832477824</v>
+      </c>
+      <c r="J7">
+        <v>0.4363027832477824</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.05581866666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.167456</v>
+      </c>
+      <c r="O7">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="P7">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="Q7">
+        <v>0.1924073719431111</v>
+      </c>
+      <c r="R7">
+        <v>1.731666347488</v>
+      </c>
+      <c r="S7">
+        <v>0.3573092273044922</v>
+      </c>
+      <c r="T7">
+        <v>0.3573092273044922</v>
       </c>
     </row>
   </sheetData>
